--- a/data/trans_bre/P19C09-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.193511922819953</v>
+        <v>-2.881639264009316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9868939174182937</v>
+        <v>1.029920128125395</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.76137173498133</v>
+        <v>-1.780143581879438</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5909727014974825</v>
+        <v>-0.5539219468312678</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3995503093472729</v>
+        <v>0.4453272656257726</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.461493997218696</v>
+        <v>-0.4730611101044983</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.477899379835845</v>
+        <v>1.581906183427336</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.873342112317789</v>
+        <v>3.947907004528081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.393602042292525</v>
+        <v>1.447215291204266</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7600663257313724</v>
+        <v>0.8487188422635809</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6.529136654243873</v>
+        <v>7.528421021831263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6687628573601008</v>
+        <v>0.6711371959954494</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.218628715755574</v>
+        <v>-1.284026566214756</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.428592493235508</v>
+        <v>-1.188775025671434</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.713731013926856</v>
+        <v>-1.752724532828655</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4728710166451862</v>
+        <v>-0.5074881674018017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5242752862943638</v>
+        <v>-0.4537894664232148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4534474033217415</v>
+        <v>-0.4580393809921661</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.592120263502562</v>
+        <v>1.321911946276869</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.498093682117368</v>
+        <v>1.523688996310812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.649143422067926</v>
+        <v>1.693810122502064</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.189550510073565</v>
+        <v>1.049468768715959</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.059111984154548</v>
+        <v>1.158848165565441</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8490403079854281</v>
+        <v>0.8106820764248424</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4893786147561376</v>
+        <v>0.3435235106715853</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7160848289046409</v>
+        <v>-0.6430677439473921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.219640545717147</v>
+        <v>-2.50850034070005</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1675882081457887</v>
+        <v>0.05103771431439787</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2644543079745907</v>
+        <v>-0.2932045431179038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7219921512298402</v>
+        <v>-0.757969342001692</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.698543541533265</v>
+        <v>3.652614723744497</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.756828449068617</v>
+        <v>2.652538205702235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.808334573503858</v>
+        <v>0.5972984150825349</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.105459414622869</v>
+        <v>2.689741324706028</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.191210019009373</v>
+        <v>1.914871203477716</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5363499032945176</v>
+        <v>0.4274327642946142</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.494334879156372</v>
+        <v>-3.749650027869395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.178396814281321</v>
+        <v>-1.285010342376252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.392344999087842</v>
+        <v>-2.563007380930313</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6105831482602934</v>
+        <v>-0.6201115985010124</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5879833802408817</v>
+        <v>-0.5103672217898031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5310203348311724</v>
+        <v>-0.5765908200813138</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.021466646546103</v>
+        <v>3.154628837775649</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.295611079003374</v>
+        <v>3.160706637125451</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.53548485851584</v>
+        <v>2.786068063227981</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.149295676224565</v>
+        <v>1.144567249101175</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.824131417854722</v>
+        <v>3.129481365982541</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.319986882424059</v>
+        <v>1.433369462306703</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4040574442359978</v>
+        <v>-0.4518650600594158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2504445169560622</v>
+        <v>0.2315965271271336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.274107927145874</v>
+        <v>-1.10933271690072</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.1296518460095234</v>
+        <v>-0.1482940295154122</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08797933307120068</v>
+        <v>0.1232924186502915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3678987510232107</v>
+        <v>-0.3267373607520331</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.416409837242343</v>
+        <v>1.462157722473009</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.954539028970139</v>
+        <v>1.944437429681351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6784090937339279</v>
+        <v>0.7417932980250319</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.6879188326063819</v>
+        <v>0.7286063101585987</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.366010890155799</v>
+        <v>1.450513564254193</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2815240862157214</v>
+        <v>0.3248484201302892</v>
       </c>
     </row>
     <row r="19">
